--- a/output/1Y_P51_1VAL-D.xlsx
+++ b/output/1Y_P51_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>22.965</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>435.4452</v>
       </c>
-      <c r="G2" s="1">
-        <v>435.4452</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.138499999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>22.965</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.138499999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>19.9668</v>
       </c>
+      <c r="E3" s="1">
+        <v>435.4452</v>
+      </c>
       <c r="F3" s="1">
         <v>500.8314</v>
       </c>
-      <c r="G3" s="1">
-        <v>936.2766</v>
-      </c>
       <c r="H3" s="1">
-        <v>18597.5434</v>
+        <v>8649.379499999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>21.3612</v>
+        <v>8649.379499999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>22.965</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>18597.5434</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0677</v>
+        <v>-0.1351</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>18.2441</v>
       </c>
+      <c r="E4" s="1">
+        <v>936.2766</v>
+      </c>
       <c r="F4" s="1">
         <v>548.1224</v>
       </c>
-      <c r="G4" s="1">
-        <v>1484.399</v>
-      </c>
       <c r="H4" s="1">
-        <v>26941.1002</v>
+        <v>16992.9526</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20.2102</v>
+        <v>16992.9526</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>21.3612</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>26941.1002</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0579</v>
+        <v>-0.0888</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>14.3227</v>
       </c>
+      <c r="E5" s="1">
+        <v>1484.399</v>
+      </c>
       <c r="F5" s="1">
         <v>698.1924</v>
       </c>
-      <c r="G5" s="1">
-        <v>2182.5914</v>
-      </c>
       <c r="H5" s="1">
-        <v>31098.4354</v>
+        <v>21150.3111</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.3268</v>
+        <v>21150.3111</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>20.2102</v>
+      </c>
+      <c r="M5" s="1">
         <v>2</v>
       </c>
-      <c r="L5" s="1">
-        <v>2671.9183</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-7328.0817</v>
+        <v>1685.2979</v>
       </c>
       <c r="O5" s="1">
-        <v>2671.9183</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>33770.3537</v>
+        <v>-8314.7021</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0858</v>
+        <v>-0.2165</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>15.7433</v>
       </c>
+      <c r="E6" s="1">
+        <v>2182.5914</v>
+      </c>
       <c r="F6" s="1">
-        <v>656.4056</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2838.997</v>
+        <v>648.5719</v>
       </c>
       <c r="H6" s="1">
-        <v>44463.519</v>
+        <v>34183.0919</v>
       </c>
       <c r="I6" s="1">
-        <v>50333.9898</v>
+        <v>1685.2979</v>
       </c>
       <c r="J6" s="1">
-        <v>17.7295</v>
+        <v>35868.3898</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40210.6622</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.4234</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10333.9898</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>2337.9285</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>46801.4474</v>
+        <v>-10210.6622</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0692</v>
+        <v>0.1515</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>16.1934</v>
       </c>
+      <c r="E7" s="1">
+        <v>2831.1633</v>
+      </c>
       <c r="F7" s="1">
-        <v>638.1606</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3477.1576</v>
+        <v>630.5447</v>
       </c>
       <c r="H7" s="1">
-        <v>56014.9222</v>
+        <v>45608.3425</v>
       </c>
       <c r="I7" s="1">
-        <v>60667.9796</v>
+        <v>1474.6357</v>
       </c>
       <c r="J7" s="1">
-        <v>17.4476</v>
+        <v>47082.9782</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50421.3245</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.8094</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10333.9898</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>2003.9387</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58018.8609</v>
+        <v>-10210.6622</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0214</v>
+        <v>0.0265</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>15.2218</v>
       </c>
+      <c r="E8" s="1">
+        <v>3461.708</v>
+      </c>
       <c r="F8" s="1">
-        <v>678.8941</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4156.0516</v>
+        <v>670.792</v>
       </c>
       <c r="H8" s="1">
-        <v>62934.6744</v>
+        <v>52420.2982</v>
       </c>
       <c r="I8" s="1">
-        <v>71001.9693</v>
+        <v>1263.9734</v>
       </c>
       <c r="J8" s="1">
-        <v>17.084</v>
+        <v>53684.2716</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60631.9867</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.515</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10333.9898</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1669.9489</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>64604.6234</v>
+        <v>-10210.6622</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0502</v>
+        <v>-0.0595</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>14.0702</v>
       </c>
+      <c r="E9" s="1">
+        <v>4132.5</v>
+      </c>
       <c r="F9" s="1">
-        <v>734.4593</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4890.511</v>
+        <v>725.6942</v>
       </c>
       <c r="H9" s="1">
-        <v>68453.9494</v>
+        <v>57843.8429</v>
       </c>
       <c r="I9" s="1">
-        <v>81335.95909999999</v>
+        <v>1053.3112</v>
       </c>
       <c r="J9" s="1">
-        <v>16.6314</v>
+        <v>58897.1541</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70842.649</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.1428</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10333.9898</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>1335.9591</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>69789.90850000001</v>
+        <v>-10210.6622</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0645</v>
+        <v>-0.0752</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>13.8476</v>
       </c>
+      <c r="E10" s="1">
+        <v>4858.1942</v>
+      </c>
       <c r="F10" s="1">
-        <v>746.2658</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5636.7767</v>
+        <v>737.3597</v>
       </c>
       <c r="H10" s="1">
-        <v>77651.1091</v>
+        <v>66925.512</v>
       </c>
       <c r="I10" s="1">
-        <v>91669.9489</v>
+        <v>842.649</v>
       </c>
       <c r="J10" s="1">
-        <v>16.2628</v>
+        <v>67768.1609</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81053.3112</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.6838</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10333.9898</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1001.9693</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>78653.0784</v>
+        <v>-10210.6622</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0142</v>
+        <v>-0.0164</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>14.6185</v>
       </c>
+      <c r="E11" s="1">
+        <v>5595.5539</v>
+      </c>
       <c r="F11" s="1">
-        <v>706.9118</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6343.6885</v>
+        <v>698.4754</v>
       </c>
       <c r="H11" s="1">
-        <v>92254.3591</v>
+        <v>81374.4621</v>
       </c>
       <c r="I11" s="1">
-        <v>102003.9387</v>
+        <v>631.9867</v>
       </c>
       <c r="J11" s="1">
-        <v>16.0796</v>
+        <v>82006.4488</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91263.9734</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.3101</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10333.9898</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>667.9796</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>92922.3386</v>
+        <v>-10210.6622</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0482</v>
+        <v>0.0545</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>15.2363</v>
       </c>
+      <c r="E12" s="1">
+        <v>6294.0293</v>
+      </c>
       <c r="F12" s="1">
-        <v>678.248</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7021.9365</v>
+        <v>670.1537</v>
       </c>
       <c r="H12" s="1">
-        <v>106433.5982</v>
+        <v>95400.4903</v>
       </c>
       <c r="I12" s="1">
-        <v>112337.9285</v>
+        <v>421.3245</v>
       </c>
       <c r="J12" s="1">
-        <v>15.9981</v>
+        <v>95821.81479999999</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101474.6357</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.1224</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10333.9898</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>333.9898</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>106767.588</v>
+        <v>-10210.6622</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0374</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>15.9097</v>
       </c>
+      <c r="E13" s="1">
+        <v>6964.183</v>
+      </c>
       <c r="F13" s="1">
-        <v>649.5402</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7671.4767</v>
+        <v>641.7885</v>
       </c>
       <c r="H13" s="1">
-        <v>121417.9962</v>
+        <v>110223.5166</v>
       </c>
       <c r="I13" s="1">
-        <v>122671.9183</v>
+        <v>210.6622</v>
       </c>
       <c r="J13" s="1">
-        <v>15.9907</v>
+        <v>110434.1788</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111685.2979</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.0371</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10333.9898</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>121417.9962</v>
+        <v>-10210.6622</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0398</v>
+        <v>0.0436</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>15.3909</v>
       </c>
+      <c r="E14" s="1">
+        <v>7605.9714</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7671.4767</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6964.183</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116455.7894</v>
       </c>
       <c r="I14" s="1">
-        <v>122671.9183</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.9907</v>
+        <v>116455.7894</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111685.2979</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.6839</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>117458.7471</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>117458.7471</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117458.7471</v>
+        <v>106629.3018</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1062</v>
+        <v>-0.033</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>22.965</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>435.4452</v>
       </c>
       <c r="G2" s="1">
-        <v>435.4452</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.138499999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>22.965</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.138499999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>19.9668</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>435.4452</v>
       </c>
       <c r="F3" s="1">
         <v>500.8314</v>
       </c>
       <c r="G3" s="1">
-        <v>936.2766</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>18597.5434</v>
+        <v>8649.379499999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>21.3612</v>
+        <v>8649.379499999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>22.965</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>18597.5434</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0677</v>
+        <v>-0.1351</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>18.2441</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>936.2766</v>
       </c>
       <c r="F4" s="1">
         <v>548.1224</v>
       </c>
       <c r="G4" s="1">
-        <v>1484.399</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>26941.1002</v>
+        <v>16992.9526</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20.2102</v>
+        <v>16992.9526</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>21.3612</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>26941.1002</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0579</v>
+        <v>-0.0888</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>14.3227</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1484.399</v>
       </c>
       <c r="F5" s="1">
         <v>698.1924</v>
       </c>
       <c r="G5" s="1">
-        <v>2182.5914</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>31098.4354</v>
+        <v>21150.3111</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.3268</v>
+        <v>21150.3111</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>20.2102</v>
+      </c>
+      <c r="M5" s="1">
         <v>2</v>
       </c>
-      <c r="L5" s="1">
-        <v>2671.9183</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-7328.0817</v>
+        <v>1685.2979</v>
       </c>
       <c r="O5" s="1">
-        <v>2671.9183</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>33770.3537</v>
+        <v>-8314.7021</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0858</v>
+        <v>-0.2165</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>15.7433</v>
       </c>
       <c r="E6" s="1">
+        <v>2182.5914</v>
+      </c>
+      <c r="F6" s="1">
+        <v>742.2394</v>
+      </c>
+      <c r="G6" s="1">
         <v>50000</v>
       </c>
-      <c r="F6" s="1">
-        <v>804.9086</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2987.5001</v>
-      </c>
       <c r="H6" s="1">
-        <v>46789.3296</v>
+        <v>34183.0919</v>
       </c>
       <c r="I6" s="1">
-        <v>52671.9183</v>
+        <v>1685.2979</v>
       </c>
       <c r="J6" s="1">
-        <v>17.6308</v>
+        <v>35868.3898</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>41685.2979</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>19.099</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-12671.9183</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>46789.3296</v>
+        <v>-11685.2979</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.06900000000000001</v>
+        <v>0.1515</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>16.1934</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2924.8308</v>
       </c>
       <c r="F7" s="1">
         <v>617.5355</v>
       </c>
       <c r="G7" s="1">
-        <v>3605.0356</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>58074.9604</v>
+        <v>47117.2698</v>
       </c>
       <c r="I7" s="1">
-        <v>62671.9183</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.3845</v>
+        <v>47117.2698</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>51685.2979</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.6712</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58074.9604</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0226</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>15.2218</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3542.3664</v>
       </c>
       <c r="F8" s="1">
         <v>656.9525</v>
       </c>
       <c r="G8" s="1">
-        <v>4261.9881</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>64538.8599</v>
+        <v>53641.6997</v>
       </c>
       <c r="I8" s="1">
-        <v>72671.9183</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.0512</v>
+        <v>53641.6997</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>61685.2979</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.4136</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>64538.8599</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0519</v>
+        <v>-0.0608</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>14.0702</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4199.3189</v>
       </c>
       <c r="F9" s="1">
         <v>710.722</v>
       </c>
       <c r="G9" s="1">
-        <v>4972.7101</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>69604.5147</v>
+        <v>58779.1265</v>
       </c>
       <c r="I9" s="1">
-        <v>82671.9183</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.6251</v>
+        <v>58779.1265</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71685.29790000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.0707</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>69604.5147</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.06619999999999999</v>
+        <v>-0.0764</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>13.8476</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4910.0409</v>
       </c>
       <c r="F10" s="1">
         <v>722.1468</v>
       </c>
       <c r="G10" s="1">
-        <v>5694.8569</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>78451.2093</v>
+        <v>67639.7408</v>
       </c>
       <c r="I10" s="1">
-        <v>92671.9183</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.2729</v>
+        <v>67639.7408</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81685.29790000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.6364</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>78451.2093</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0145</v>
+        <v>-0.0166</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>14.6185</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5632.1877</v>
       </c>
       <c r="F11" s="1">
         <v>684.0647</v>
       </c>
       <c r="G11" s="1">
-        <v>6378.9216</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>92766.7429</v>
+        <v>81907.2153</v>
       </c>
       <c r="I11" s="1">
-        <v>102671.9183</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.0955</v>
+        <v>81907.2153</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91685.29790000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.2788</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>92766.7429</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0488</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>15.2363</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>6316.2524</v>
       </c>
       <c r="F12" s="1">
         <v>656.3273</v>
       </c>
       <c r="G12" s="1">
-        <v>7035.2489</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>106635.3783</v>
+        <v>95737.3319</v>
       </c>
       <c r="I12" s="1">
-        <v>112671.9183</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.0153</v>
+        <v>95737.3319</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101685.2979</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.099</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>106635.3783</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0376</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>15.9097</v>
       </c>
       <c r="E13" s="1">
+        <v>6972.5797</v>
+      </c>
+      <c r="F13" s="1">
+        <v>609.3047</v>
+      </c>
+      <c r="G13" s="1">
         <v>120000</v>
       </c>
-      <c r="F13" s="1">
-        <v>546.6354</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7581.8844</v>
-      </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>110356.4132</v>
       </c>
       <c r="I13" s="1">
-        <v>121368.7242</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.0077</v>
+        <v>110356.4132</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111379.1523</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.9739</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-8696.805899999999</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>1303.1941</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>121303.1941</v>
+        <v>-9693.8544</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.04</v>
+        <v>0.0437</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>15.3909</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7581.8844</v>
       </c>
       <c r="F14" s="1">
         <v>-7581.8844</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116086.9895</v>
       </c>
       <c r="I14" s="1">
-        <v>121368.7242</v>
+        <v>306.1456</v>
       </c>
       <c r="J14" s="1">
-        <v>16.0077</v>
+        <v>116393.1351</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111379.1523</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.6902</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>116086.9895</v>
       </c>
-      <c r="O14" s="1">
-        <v>117390.1836</v>
-      </c>
-      <c r="P14" s="1">
-        <v>117390.1836</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.106</v>
+        <v>-0.0329</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>22.965</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>435.4452</v>
       </c>
       <c r="G2" s="1">
-        <v>435.4452</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.138499999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>22.965</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.138499999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>19.9668</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>435.4452</v>
       </c>
       <c r="F3" s="1">
         <v>500.8314</v>
       </c>
       <c r="G3" s="1">
-        <v>936.2766</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>18597.5434</v>
+        <v>8649.379499999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>21.3612</v>
+        <v>8649.379499999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>22.965</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>18597.5434</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0677</v>
+        <v>-0.1351</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>18.2441</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>936.2766</v>
       </c>
       <c r="F4" s="1">
         <v>548.1224</v>
       </c>
       <c r="G4" s="1">
-        <v>1484.399</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>26941.1002</v>
+        <v>16992.9526</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20.2102</v>
+        <v>16992.9526</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>21.3612</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>26941.1002</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0579</v>
+        <v>-0.0888</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>14.3227</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1484.399</v>
       </c>
       <c r="F5" s="1">
         <v>698.1924</v>
       </c>
       <c r="G5" s="1">
-        <v>2182.5914</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>31098.4354</v>
+        <v>21150.3111</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.3268</v>
+        <v>21150.3111</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>20.2102</v>
+      </c>
+      <c r="M5" s="1">
         <v>2</v>
       </c>
-      <c r="L5" s="1">
-        <v>2671.9183</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-7328.0817</v>
+        <v>1685.2979</v>
       </c>
       <c r="O5" s="1">
-        <v>2671.9183</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>33770.3537</v>
+        <v>-8314.7021</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0858</v>
+        <v>-0.2165</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>15.7433</v>
       </c>
       <c r="E6" s="1">
+        <v>2182.5914</v>
+      </c>
+      <c r="F6" s="1">
+        <v>742.2394</v>
+      </c>
+      <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
-      <c r="F6" s="1">
-        <v>804.9086</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2987.5001</v>
-      </c>
       <c r="H6" s="1">
-        <v>46789.3296</v>
+        <v>34183.0919</v>
       </c>
       <c r="I6" s="1">
-        <v>52671.9183</v>
+        <v>1685.2979</v>
       </c>
       <c r="J6" s="1">
-        <v>17.6308</v>
+        <v>35868.3898</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>41685.2979</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>19.099</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-12671.9183</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>46789.3296</v>
+        <v>-11685.2979</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.06900000000000001</v>
+        <v>0.1515</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>16.1934</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2924.8308</v>
       </c>
       <c r="F7" s="1">
         <v>617.5355</v>
       </c>
       <c r="G7" s="1">
-        <v>3605.0356</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>58074.9604</v>
+        <v>47117.2698</v>
       </c>
       <c r="I7" s="1">
-        <v>62671.9183</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.3845</v>
+        <v>47117.2698</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>51685.2979</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.6712</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58074.9604</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0226</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>15.2218</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3542.3664</v>
       </c>
       <c r="F8" s="1">
         <v>656.9525</v>
       </c>
       <c r="G8" s="1">
-        <v>4261.9881</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>64538.8599</v>
+        <v>53641.6997</v>
       </c>
       <c r="I8" s="1">
-        <v>72671.9183</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.0512</v>
+        <v>53641.6997</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>61685.2979</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.4136</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>64538.8599</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0519</v>
+        <v>-0.0608</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>14.0702</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4199.3189</v>
       </c>
       <c r="F9" s="1">
         <v>710.722</v>
       </c>
       <c r="G9" s="1">
-        <v>4972.7101</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>69604.5147</v>
+        <v>58779.1265</v>
       </c>
       <c r="I9" s="1">
-        <v>82671.9183</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.6251</v>
+        <v>58779.1265</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71685.29790000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.0707</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>69604.5147</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.06619999999999999</v>
+        <v>-0.0764</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>13.8476</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4910.0409</v>
       </c>
       <c r="F10" s="1">
         <v>722.1468</v>
       </c>
       <c r="G10" s="1">
-        <v>5694.8569</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>78451.2093</v>
+        <v>67639.7408</v>
       </c>
       <c r="I10" s="1">
-        <v>92671.9183</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.2729</v>
+        <v>67639.7408</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81685.29790000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.6364</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>78451.2093</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0145</v>
+        <v>-0.0166</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>14.6185</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5632.1877</v>
       </c>
       <c r="F11" s="1">
         <v>684.0647</v>
       </c>
       <c r="G11" s="1">
-        <v>6378.9216</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>92766.7429</v>
+        <v>81907.2153</v>
       </c>
       <c r="I11" s="1">
-        <v>102671.9183</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.0955</v>
+        <v>81907.2153</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91685.29790000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.2788</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>92766.7429</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0488</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>15.2363</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>6316.2524</v>
       </c>
       <c r="F12" s="1">
         <v>656.3273</v>
       </c>
       <c r="G12" s="1">
-        <v>7035.2489</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>106635.3783</v>
+        <v>95737.3319</v>
       </c>
       <c r="I12" s="1">
-        <v>112671.9183</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.0153</v>
+        <v>95737.3319</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101685.2979</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.099</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>106635.3783</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0376</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>15.9097</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6972.5797</v>
       </c>
       <c r="F13" s="1">
         <v>628.5474</v>
       </c>
       <c r="G13" s="1">
-        <v>7663.7963</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>121296.4363</v>
+        <v>110356.4132</v>
       </c>
       <c r="I13" s="1">
-        <v>122671.9183</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.0067</v>
+        <v>110356.4132</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111685.2979</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.0178</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>121296.4363</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.04</v>
+        <v>0.0437</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>15.3909</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7601.1271</v>
       </c>
       <c r="F14" s="1">
-        <v>-7663.7963</v>
+        <v>-7601.1271</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116381.6164</v>
       </c>
       <c r="I14" s="1">
-        <v>122671.9183</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.0067</v>
+        <v>116381.6164</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111685.2979</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.6933</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>117341.1511</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>117341.1511</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117341.1511</v>
+        <v>116381.6164</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1063</v>
+        <v>-0.033</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>22.965</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>435.4452</v>
       </c>
       <c r="G2" s="1">
-        <v>435.4452</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.138499999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>22.965</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.138499999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>19.9668</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>435.4452</v>
       </c>
       <c r="F3" s="1">
         <v>500.8314</v>
       </c>
       <c r="G3" s="1">
-        <v>936.2766</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>18597.5434</v>
+        <v>8649.379499999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>21.3612</v>
+        <v>8649.379499999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>22.965</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>18597.5434</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0677</v>
+        <v>-0.1351</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>18.2441</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>936.2766</v>
       </c>
       <c r="F4" s="1">
         <v>548.1224</v>
       </c>
       <c r="G4" s="1">
-        <v>1484.399</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>26941.1002</v>
+        <v>16992.9526</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20.2102</v>
+        <v>16992.9526</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>21.3612</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>26941.1002</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0579</v>
+        <v>-0.0888</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>14.3227</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1484.399</v>
       </c>
       <c r="F5" s="1">
         <v>698.1924</v>
       </c>
       <c r="G5" s="1">
-        <v>2182.5914</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>31098.4354</v>
+        <v>21150.3111</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.3268</v>
+        <v>21150.3111</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>20.2102</v>
+      </c>
+      <c r="M5" s="1">
         <v>2</v>
       </c>
-      <c r="L5" s="1">
-        <v>2671.9183</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-7328.0817</v>
+        <v>1685.2979</v>
       </c>
       <c r="O5" s="1">
-        <v>2671.9183</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>33770.3537</v>
+        <v>-8314.7021</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0858</v>
+        <v>-0.2165</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>15.7433</v>
       </c>
       <c r="E6" s="1">
+        <v>2182.5914</v>
+      </c>
+      <c r="F6" s="1">
+        <v>742.2394</v>
+      </c>
+      <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
-      <c r="F6" s="1">
-        <v>804.9086</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2987.5001</v>
-      </c>
       <c r="H6" s="1">
-        <v>46789.3296</v>
+        <v>34183.0919</v>
       </c>
       <c r="I6" s="1">
-        <v>52671.9183</v>
+        <v>1685.2979</v>
       </c>
       <c r="J6" s="1">
-        <v>17.6308</v>
+        <v>35868.3898</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>41685.2979</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>19.099</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-12671.9183</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>46789.3296</v>
+        <v>-11685.2979</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.06900000000000001</v>
+        <v>0.1515</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>16.1934</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2924.8308</v>
       </c>
       <c r="F7" s="1">
         <v>617.5355</v>
       </c>
       <c r="G7" s="1">
-        <v>3605.0356</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>58074.9604</v>
+        <v>47117.2698</v>
       </c>
       <c r="I7" s="1">
-        <v>62671.9183</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.3845</v>
+        <v>47117.2698</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>51685.2979</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.6712</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58074.9604</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0226</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>15.2218</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3542.3664</v>
       </c>
       <c r="F8" s="1">
         <v>656.9525</v>
       </c>
       <c r="G8" s="1">
-        <v>4261.9881</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>64538.8599</v>
+        <v>53641.6997</v>
       </c>
       <c r="I8" s="1">
-        <v>72671.9183</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.0512</v>
+        <v>53641.6997</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>61685.2979</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.4136</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>64538.8599</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0519</v>
+        <v>-0.0608</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>14.0702</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4199.3189</v>
       </c>
       <c r="F9" s="1">
         <v>710.722</v>
       </c>
       <c r="G9" s="1">
-        <v>4972.7101</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>69604.5147</v>
+        <v>58779.1265</v>
       </c>
       <c r="I9" s="1">
-        <v>82671.9183</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.6251</v>
+        <v>58779.1265</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71685.29790000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.0707</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>69604.5147</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.06619999999999999</v>
+        <v>-0.0764</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>13.8476</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4910.0409</v>
       </c>
       <c r="F10" s="1">
         <v>722.1468</v>
       </c>
       <c r="G10" s="1">
-        <v>5694.8569</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>78451.2093</v>
+        <v>67639.7408</v>
       </c>
       <c r="I10" s="1">
-        <v>92671.9183</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.2729</v>
+        <v>67639.7408</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81685.29790000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.6364</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>78451.2093</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0145</v>
+        <v>-0.0166</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>14.6185</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5632.1877</v>
       </c>
       <c r="F11" s="1">
         <v>684.0647</v>
       </c>
       <c r="G11" s="1">
-        <v>6378.9216</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>92766.7429</v>
+        <v>81907.2153</v>
       </c>
       <c r="I11" s="1">
-        <v>102671.9183</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.0955</v>
+        <v>81907.2153</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91685.29790000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.2788</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>92766.7429</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0488</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>15.2363</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6316.2524</v>
       </c>
       <c r="F12" s="1">
         <v>656.3273</v>
       </c>
       <c r="G12" s="1">
-        <v>7035.2489</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>106635.3783</v>
+        <v>95737.3319</v>
       </c>
       <c r="I12" s="1">
-        <v>112671.9183</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.0153</v>
+        <v>95737.3319</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101685.2979</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.099</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>106635.3783</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0376</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>15.9097</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6972.5797</v>
       </c>
       <c r="F13" s="1">
         <v>628.5474</v>
       </c>
       <c r="G13" s="1">
-        <v>7663.7963</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>121296.4363</v>
+        <v>110356.4132</v>
       </c>
       <c r="I13" s="1">
-        <v>122671.9183</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.0067</v>
+        <v>110356.4132</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111685.2979</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.0178</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>121296.4363</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.04</v>
+        <v>0.0437</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>15.3909</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7601.1271</v>
       </c>
       <c r="F14" s="1">
-        <v>-7663.7963</v>
+        <v>-7601.1271</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116381.6164</v>
       </c>
       <c r="I14" s="1">
-        <v>122671.9183</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.0067</v>
+        <v>116381.6164</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111685.2979</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.6933</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>117341.1511</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>117341.1511</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117341.1511</v>
+        <v>116381.6164</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1063</v>
+        <v>-0.033</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>22.965</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>435.4452</v>
       </c>
       <c r="G2" s="1">
-        <v>435.4452</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.138499999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>22.965</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.138499999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>19.9668</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>435.4452</v>
       </c>
       <c r="F3" s="1">
         <v>500.8314</v>
       </c>
       <c r="G3" s="1">
-        <v>936.2766</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>18597.5434</v>
+        <v>8649.379499999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>21.3612</v>
+        <v>8649.379499999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>22.965</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>18597.5434</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0677</v>
+        <v>-0.1351</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>18.2441</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>936.2766</v>
       </c>
       <c r="F4" s="1">
         <v>548.1224</v>
       </c>
       <c r="G4" s="1">
-        <v>1484.399</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>26941.1002</v>
+        <v>16992.9526</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20.2102</v>
+        <v>16992.9526</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>21.3612</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>26941.1002</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0579</v>
+        <v>-0.0888</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>14.3227</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1484.399</v>
       </c>
       <c r="F5" s="1">
         <v>698.1924</v>
       </c>
       <c r="G5" s="1">
-        <v>2182.5914</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>31098.4354</v>
+        <v>21150.3111</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.3268</v>
+        <v>21150.3111</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>20.2102</v>
+      </c>
+      <c r="M5" s="1">
         <v>2</v>
       </c>
-      <c r="L5" s="1">
-        <v>2671.9183</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-7328.0817</v>
+        <v>1685.2979</v>
       </c>
       <c r="O5" s="1">
-        <v>2671.9183</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>33770.3537</v>
+        <v>-8314.7021</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0858</v>
+        <v>-0.2165</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>15.7433</v>
       </c>
       <c r="E6" s="1">
+        <v>2182.5914</v>
+      </c>
+      <c r="F6" s="1">
+        <v>742.2394</v>
+      </c>
+      <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
-      <c r="F6" s="1">
-        <v>804.9086</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2987.5001</v>
-      </c>
       <c r="H6" s="1">
-        <v>46789.3296</v>
+        <v>34183.0919</v>
       </c>
       <c r="I6" s="1">
-        <v>52671.9183</v>
+        <v>1685.2979</v>
       </c>
       <c r="J6" s="1">
-        <v>17.6308</v>
+        <v>35868.3898</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>41685.2979</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>19.099</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-12671.9183</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>46789.3296</v>
+        <v>-11685.2979</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.06900000000000001</v>
+        <v>0.1515</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>16.1934</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2924.8308</v>
       </c>
       <c r="F7" s="1">
         <v>617.5355</v>
       </c>
       <c r="G7" s="1">
-        <v>3605.0356</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>58074.9604</v>
+        <v>47117.2698</v>
       </c>
       <c r="I7" s="1">
-        <v>62671.9183</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.3845</v>
+        <v>47117.2698</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>51685.2979</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.6712</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58074.9604</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0226</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>15.2218</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3542.3664</v>
       </c>
       <c r="F8" s="1">
         <v>656.9525</v>
       </c>
       <c r="G8" s="1">
-        <v>4261.9881</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>64538.8599</v>
+        <v>53641.6997</v>
       </c>
       <c r="I8" s="1">
-        <v>72671.9183</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.0512</v>
+        <v>53641.6997</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>61685.2979</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.4136</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>64538.8599</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0519</v>
+        <v>-0.0608</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>14.0702</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4199.3189</v>
       </c>
       <c r="F9" s="1">
         <v>710.722</v>
       </c>
       <c r="G9" s="1">
-        <v>4972.7101</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>69604.5147</v>
+        <v>58779.1265</v>
       </c>
       <c r="I9" s="1">
-        <v>82671.9183</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.6251</v>
+        <v>58779.1265</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71685.29790000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.0707</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>69604.5147</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.06619999999999999</v>
+        <v>-0.0764</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>13.8476</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4910.0409</v>
       </c>
       <c r="F10" s="1">
         <v>722.1468</v>
       </c>
       <c r="G10" s="1">
-        <v>5694.8569</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>78451.2093</v>
+        <v>67639.7408</v>
       </c>
       <c r="I10" s="1">
-        <v>92671.9183</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.2729</v>
+        <v>67639.7408</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81685.29790000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.6364</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>78451.2093</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0145</v>
+        <v>-0.0166</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>14.6185</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5632.1877</v>
       </c>
       <c r="F11" s="1">
         <v>684.0647</v>
       </c>
       <c r="G11" s="1">
-        <v>6378.9216</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>92766.7429</v>
+        <v>81907.2153</v>
       </c>
       <c r="I11" s="1">
-        <v>102671.9183</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.0955</v>
+        <v>81907.2153</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91685.29790000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.2788</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>92766.7429</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0488</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>15.2363</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6316.2524</v>
       </c>
       <c r="F12" s="1">
         <v>656.3273</v>
       </c>
       <c r="G12" s="1">
-        <v>7035.2489</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>106635.3783</v>
+        <v>95737.3319</v>
       </c>
       <c r="I12" s="1">
-        <v>112671.9183</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.0153</v>
+        <v>95737.3319</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101685.2979</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.099</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>106635.3783</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0376</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>15.9097</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6972.5797</v>
       </c>
       <c r="F13" s="1">
         <v>628.5474</v>
       </c>
       <c r="G13" s="1">
-        <v>7663.7963</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>121296.4363</v>
+        <v>110356.4132</v>
       </c>
       <c r="I13" s="1">
-        <v>122671.9183</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.0067</v>
+        <v>110356.4132</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111685.2979</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.0178</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>121296.4363</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.04</v>
+        <v>0.0437</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>15.3909</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7601.1271</v>
       </c>
       <c r="F14" s="1">
-        <v>-7663.7963</v>
+        <v>-7601.1271</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116381.6164</v>
       </c>
       <c r="I14" s="1">
-        <v>122671.9183</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.0067</v>
+        <v>116381.6164</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111685.2979</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.6933</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>117341.1511</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>117341.1511</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117341.1511</v>
+        <v>116381.6164</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1063</v>
+        <v>-0.033</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>15.3494</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.9907</v>
+        <v>14.6839</v>
       </c>
       <c r="D3" s="1">
-        <v>16.0077</v>
+        <v>14.6902</v>
       </c>
       <c r="E3" s="1">
-        <v>16.0067</v>
+        <v>14.6933</v>
       </c>
       <c r="F3" s="1">
-        <v>16.0067</v>
+        <v>14.6933</v>
       </c>
       <c r="G3" s="1">
-        <v>16.0067</v>
+        <v>14.6933</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.346</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.2306</v>
+        <v>-0.307</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.232</v>
+        <v>-0.3081</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.2324</v>
+        <v>-0.3082</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.2324</v>
+        <v>-0.3082</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.2324</v>
+        <v>-0.3082</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2981</v>
       </c>
       <c r="C5" s="3">
-        <v>0.199</v>
+        <v>0.3254</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2</v>
+        <v>0.3261</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2001</v>
+        <v>0.3261</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2001</v>
+        <v>0.3261</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2001</v>
+        <v>0.3261</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-1.2289</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.2611</v>
+        <v>-1.0057</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.2614</v>
+        <v>-1.0071</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.2625</v>
+        <v>-1.0074</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.2625</v>
+        <v>-1.0074</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.2625</v>
+        <v>-1.0074</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0395</v>
+        <v>-0.2008</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.0401</v>
+        <v>-0.0552</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.0408</v>
+        <v>-0.0553</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.0408</v>
+        <v>-0.0553</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.0408</v>
+        <v>-0.0553</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>2671.9183</v>
+        <v>1685.2979</v>
       </c>
       <c r="D8" s="1">
-        <v>2671.9183</v>
+        <v>1685.2979</v>
       </c>
       <c r="E8" s="1">
-        <v>2671.9183</v>
+        <v>1685.2979</v>
       </c>
       <c r="F8" s="1">
-        <v>2671.9183</v>
+        <v>1685.2979</v>
       </c>
       <c r="G8" s="1">
-        <v>2671.9183</v>
+        <v>1685.2979</v>
       </c>
     </row>
   </sheetData>
